--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1763.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1763.xlsx
@@ -348,10 +348,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6735087920477697</v>
+        <v>0.9237794876098633</v>
       </c>
       <c r="B1">
-        <v>1.108377733327717</v>
+        <v>1.235646843910217</v>
       </c>
       <c r="C1">
         <v>-1</v>
@@ -360,7 +360,7 @@
         <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.566258563142744</v>
+        <v>0.9638873934745789</v>
       </c>
     </row>
   </sheetData>
